--- a/medicine/Psychotrope/Bonarda_piemontese/Bonarda_piemontese.xlsx
+++ b/medicine/Psychotrope/Bonarda_piemontese/Bonarda_piemontese.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La bonarda piemontese est un cépage italien de raisins noir.
@@ -512,7 +524,9 @@
           <t>Origine et répartition géographique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il  provient du nord de l'Italie. Le cépage est connu depuis le IXe siècle. 
 Elle est classée cépage d'appoint en DOC Albugnano, Bramaterra, Canavese, Colli Tortonesi, Coste della Sesia, Lessona, Piemonte et Pinerolese.
@@ -546,7 +560,9 @@
           <t>Caractères ampélographiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Extrémité du jeune rameau cotonneux blanc à pointe rosée.
 Jeunes feuilles duveteuses, jaunâtres.
@@ -578,7 +594,9 @@
           <t>Aptitudes culturales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La maturité est de deuxième époque tardive: 20 jours après le chasselas. 
 </t>
@@ -609,7 +627,9 @@
           <t>Potentiel technologique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les grappes sont moyennes à grandes et les baies sont de taille moyenne. La grappe est tronconique. Le cépage est de bonne vigueur et d'une fertilité bonne et régulière. Elle est sensible aux mildiou mais en revanche peu sensible à l'oïdium.
 Elle donne des vins rouges de couleur vive, moyennement alcoolique et assez délicat.
@@ -641,7 +661,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">La bonarda piemontese est connue sous les noms de : bonarda, bonarda à grandes grappes, bonarda dell' Astigiano, bonarda del Monferrato, bonarda di Chieri, bonarda du Piémont, bonarda nera, croatina (par erreur, voir croatina), neretto duro.
 </t>
